--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427D2127-F003-4F87-BDF5-44F0A2559593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E487BF1-38A2-4D33-90AE-8F90E02788C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="1890" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="24730" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>with</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
-    <t>Charlotte Hargraves</t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>Mres Infection Biology</t>
   </si>
   <si>
-    <t>Anya Morrison</t>
-  </si>
-  <si>
     <t xml:space="preserve">Co-primary supervisor - project design and mentorship &amp; direct supervision/training, student now a PhD Candidate in Leeds. </t>
   </si>
   <si>
@@ -102,12 +93,6 @@
     <t>Co-primary supervisor - project design and mentorship &amp; direct supervision/training, student now in UK graduate Industry role.</t>
   </si>
   <si>
-    <t>Robert Walsh</t>
-  </si>
-  <si>
-    <t>Kyle Cunningham</t>
-  </si>
-  <si>
     <t>Informal mentorship</t>
   </si>
   <si>
@@ -129,9 +114,6 @@
     <t>Informal supervisor. Project design and management and career mentorship. Two papers published together, awarded best presentation at ICS 2018. Now a Post-Doc in Glasgow.</t>
   </si>
   <si>
-    <t>Aisling Ui Mhaonaigh</t>
-  </si>
-  <si>
     <t xml:space="preserve">Msc Immunology </t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Student now in Biotech Industry role.</t>
   </si>
   <si>
-    <t>Ben Doyle</t>
-  </si>
-  <si>
     <t>Bachelor in Medicine</t>
   </si>
   <si>
@@ -162,12 +141,6 @@
     <t>Ba(Mod)</t>
   </si>
   <si>
-    <t>Ruán Ó Conluain</t>
-  </si>
-  <si>
-    <t>Jessica Egelbaum &amp; Simon Hollingsworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">Co-primary supervisor – lab/statistical training, writing mentorship. Ongoing collaboration with a co-first author paper in preparation together.  </t>
   </si>
   <si>
@@ -175,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Direct supervision and training. Daily interaction. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makala Carroll </t>
   </si>
   <si>
     <t>Formal supervison</t>
@@ -519,7 +489,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F13" sqref="F1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,9 +517,6 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -587,203 +554,181 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>2015</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>2021</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>2021</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E487BF1-38A2-4D33-90AE-8F90E02788C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D29239-C07F-4270-A76B-4D051720F24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="24730" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D29239-C07F-4270-A76B-4D051720F24A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720C2BC-4C74-4C46-B311-7FD9F621B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="24730" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="6120" windowWidth="24890" windowHeight="12590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>with</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Formal supervison</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F1:F13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,8 +686,8 @@
       <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
-        <v>2021</v>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B720C2BC-4C74-4C46-B311-7FD9F621B634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7508380C-B567-4F1E-A784-3D72210CDD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="6120" windowWidth="24890" windowHeight="12590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7860" yWindow="1040" windowWidth="19990" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>with</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>2021-2022</t>
+  </si>
+  <si>
+    <t>Primary supervisor</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,7 +736,25 @@
       </c>
       <c r="F13" s="1"/>
     </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7508380C-B567-4F1E-A784-3D72210CDD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4F7BE-299A-4666-85CD-4E67A052A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1040" windowWidth="19990" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="5130" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,12 +138,6 @@
     <t>Lab/statistical training. Continued Informal mentorship with one student.</t>
   </si>
   <si>
-    <t>Ba(Mod)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co-primary supervisor – lab/statistical training, writing mentorship. Ongoing collaboration with a co-first author paper in preparation together.  </t>
-  </si>
-  <si>
     <t>Research Assistant</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>Primary supervisor</t>
+  </si>
+  <si>
+    <t>Ba(Mod) Molecular Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary supervisor – lab/statistical training, writing mentorship. Ongoing collaboration with a co-first author paper in preparation together.  </t>
   </si>
 </sst>
 </file>
@@ -495,19 +495,19 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -558,7 +558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -576,7 +576,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -594,7 +594,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -611,7 +611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -628,7 +628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -646,7 +646,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -664,7 +664,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -682,7 +682,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -690,7 +690,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -700,12 +700,12 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>2021</v>
@@ -714,16 +714,16 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -732,16 +732,16 @@
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>2022</v>
@@ -750,7 +750,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4F7BE-299A-4666-85CD-4E67A052A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1445ED25-E03E-4611-84A4-FB252F9EBE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="5130" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>with</t>
   </si>
@@ -81,27 +81,9 @@
     <t>Mres Infection Biology</t>
   </si>
   <si>
-    <t xml:space="preserve">Co-primary supervisor - project design and mentorship &amp; direct supervision/training, student now a PhD Candidate in Leeds. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 month student project </t>
-  </si>
-  <si>
     <t>2018-2019</t>
   </si>
   <si>
-    <t>Co-primary supervisor - project design and mentorship &amp; direct supervision/training, student now in UK graduate Industry role.</t>
-  </si>
-  <si>
-    <t>Informal mentorship</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>Informal supervisor. Project design and management.</t>
-  </si>
-  <si>
     <t>Trinity College Dublin</t>
   </si>
   <si>
@@ -111,59 +93,124 @@
     <t>2017-2021</t>
   </si>
   <si>
-    <t>Informal supervisor. Project design and management and career mentorship. Two papers published together, awarded best presentation at ICS 2018. Now a Post-Doc in Glasgow.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Msc Immunology </t>
   </si>
   <si>
-    <t>3 month student project</t>
-  </si>
-  <si>
-    <t>Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Sudent now a PhD candidate in TCD.</t>
-  </si>
-  <si>
-    <t>Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Project led to IRC-funded PhD that I co-wrote.</t>
-  </si>
-  <si>
-    <t>Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Student now in Biotech Industry role.</t>
-  </si>
-  <si>
     <t>Bachelor in Medicine</t>
   </si>
   <si>
-    <t>2 week student project</t>
-  </si>
-  <si>
-    <t>Lab/statistical training. Continued Informal mentorship with one student.</t>
-  </si>
-  <si>
     <t>Research Assistant</t>
   </si>
   <si>
-    <t xml:space="preserve">Direct supervision and training. Daily interaction. </t>
-  </si>
-  <si>
-    <t>Formal supervison</t>
-  </si>
-  <si>
     <t>2021-2022</t>
   </si>
   <si>
-    <t>Primary supervisor</t>
-  </si>
-  <si>
-    <t>Ba(Mod) Molecular Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary supervisor – lab/statistical training, writing mentorship. Ongoing collaboration with a co-first author paper in preparation together.  </t>
+    <t>Anya Morrison</t>
+  </si>
+  <si>
+    <t>Charlotte Hargreaves</t>
+  </si>
+  <si>
+    <t>Dr Robert Walsh</t>
+  </si>
+  <si>
+    <t>Dr Kyle Cunningham</t>
+  </si>
+  <si>
+    <t>Aisling Ui Mhaonaigh</t>
+  </si>
+  <si>
+    <t>Ben Doyle</t>
+  </si>
+  <si>
+    <t>Ruán Ó Conluain</t>
+  </si>
+  <si>
+    <t>Medical Student Lab Rotations</t>
+  </si>
+  <si>
+    <t>Makala Carroll</t>
+  </si>
+  <si>
+    <t>Katy White</t>
+  </si>
+  <si>
+    <t>Ba(Mod) Molecular Medicine (intercalating Medical student)</t>
+  </si>
+  <si>
+    <t>“PREVENTION IN PERSONALISED MEDICINE - paradise study”. Direct supervision and training. Daily interaction and mentorship.</t>
+  </si>
+  <si>
+    <t>"Soluble urokinase plasminogen activator receptor in ANCA-associated vasculitis." Primary supervisor with lab/statistical training, writing mentorship. Ongoing collaboration with a co-first author paper in preparation together.  Prizes: Best Overall Student: M.Sc. in Molecular Medicine. David Oliveira Medical Student Prize (Shortlisted and Oral Presentation) Royal Society of Medicine: Nephrology Section. Presented Poster: Vasculitis + ANCA International Conference 2022. Henry Coke Drury research scholarship. Presented at the TTMI Immunology meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The role of B lymphocytes within a murine filarial nematode infection." Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training, now in UK graduate Industry role. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The Immunoregulatory activity of exosomes secreted by the parasitic worm, Fasciola hepatica."  Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training. PhD candidate in TCD. </t>
+  </si>
+  <si>
+    <t>Two students per year - Lab/statistical training. Continued Informal mentorship with one student, another student presented research from this project at Irish Nephrology Conference 2022. Grade: I (2021 &amp; 2022)</t>
+  </si>
+  <si>
+    <t>"Nanoparticle modulation of neutrophil and monocyte responses to ANCA" Primary supervisor (ongoing)</t>
+  </si>
+  <si>
+    <t>Amrita Dwivedi</t>
+  </si>
+  <si>
+    <t>PhD Student</t>
+  </si>
+  <si>
+    <t>PhD student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"The role of CD4+ T cells in macrophage proliferation and alternative activation." Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training, student now a Virology PhD Student in Leeds. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Modulation of immune responses by Fasciola hepatica-derived products" Informal supervisor. Project design and management. Now at Novartis as medical science liaison. </t>
+  </si>
+  <si>
+    <t>"Helminth products promote anti-inflammatory trained innate immunity by imprinting long-term hematopoietic stem cells." Informal supervisor. Project design and management and career mentorship. Two papers published together. Awarded best presentation at Irish society of Immunology 2018. TCD Postgraduate Research Symposium – First Prize. Now type 2 Immunology Post-Doc in Glasgow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Modulation of Innate immune responses by the helminth parasite Fasciola hepatica "Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Student now at Nuritas Ltd. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Aberrant neutrophils are associated with poor outcome and display a disease specific response in Covid 19" Informal co-supervisor. Project management, bioinformatics training, manuscript writing. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"The role of IL-33 in the induction of regulatory-type-2 responses that control autoimmunity." Grade: I with Distinction. Co-primary supervisor - project design and mentorship &amp; direct supervision/training. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Keith Tipton Award Second Prize.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Project led to IRC-funded PhD that I co-wrote (see above)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +230,21 @@
       <color rgb="FFE4E6E7"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,13 +267,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,19 +557,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E4" sqref="E4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -560,7 +625,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -571,61 +636,61 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,124 +698,141 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2015</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2014</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1">
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C13">
-        <v>2021</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1">
         <v>2022</v>
       </c>
       <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1445ED25-E03E-4611-84A4-FB252F9EBE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF78AFA-E788-4C00-A277-3192313E7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="1440" windowWidth="29520" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>with</t>
   </si>
@@ -204,6 +204,12 @@
       </rPr>
       <t xml:space="preserve"> Project led to IRC-funded PhD that I co-wrote (see above)</t>
     </r>
+  </si>
+  <si>
+    <t>Simon Hollingsworth</t>
+  </si>
+  <si>
+    <t>Soluble urokinase plasminogen activator receptor as a urine biomarker of disease activity in ANCA-associated vasculitis." Primary supervisor</t>
   </si>
 </sst>
 </file>
@@ -557,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +841,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF78AFA-E788-4C00-A277-3192313E7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EADF8-3BEF-D840-8CF3-EF3CAB53839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="1440" windowWidth="29520" windowHeight="18195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>with</t>
   </si>
@@ -147,15 +147,9 @@
     <t xml:space="preserve">"The role of B lymphocytes within a murine filarial nematode infection." Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training, now in UK graduate Industry role. </t>
   </si>
   <si>
-    <t xml:space="preserve">"The Immunoregulatory activity of exosomes secreted by the parasitic worm, Fasciola hepatica."  Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training. PhD candidate in TCD. </t>
-  </si>
-  <si>
     <t>Two students per year - Lab/statistical training. Continued Informal mentorship with one student, another student presented research from this project at Irish Nephrology Conference 2022. Grade: I (2021 &amp; 2022)</t>
   </si>
   <si>
-    <t>"Nanoparticle modulation of neutrophil and monocyte responses to ANCA" Primary supervisor (ongoing)</t>
-  </si>
-  <si>
     <t>Amrita Dwivedi</t>
   </si>
   <si>
@@ -168,13 +162,7 @@
     <t xml:space="preserve">"The role of CD4+ T cells in macrophage proliferation and alternative activation." Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training, student now a Virology PhD Student in Leeds. </t>
   </si>
   <si>
-    <t xml:space="preserve">"Modulation of immune responses by Fasciola hepatica-derived products" Informal supervisor. Project design and management. Now at Novartis as medical science liaison. </t>
-  </si>
-  <si>
     <t>"Helminth products promote anti-inflammatory trained innate immunity by imprinting long-term hematopoietic stem cells." Informal supervisor. Project design and management and career mentorship. Two papers published together. Awarded best presentation at Irish society of Immunology 2018. TCD Postgraduate Research Symposium – First Prize. Now type 2 Immunology Post-Doc in Glasgow.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Modulation of Innate immune responses by the helminth parasite Fasciola hepatica "Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Student now at Nuritas Ltd. </t>
   </si>
   <si>
     <t xml:space="preserve">"Aberrant neutrophils are associated with poor outcome and display a disease specific response in Covid 19" Informal co-supervisor. Project management, bioinformatics training, manuscript writing. </t>
@@ -209,7 +197,55 @@
     <t>Simon Hollingsworth</t>
   </si>
   <si>
-    <t>Soluble urokinase plasminogen activator receptor as a urine biomarker of disease activity in ANCA-associated vasculitis." Primary supervisor</t>
+    <t>PhD Student (day-to-day supervisor, unofficial)</t>
+  </si>
+  <si>
+    <t>Msc Molecular Medicine</t>
+  </si>
+  <si>
+    <t>Nico Ka Yiu Ng</t>
+  </si>
+  <si>
+    <t>"Soluble urokinase plasminogen activator receptor as a urine biomarker of disease activity in ANCA-associated vasculitis." Primary supervisor</t>
+  </si>
+  <si>
+    <t>"Nanoparticle modulation of neutrophil and monocyte responses to ANCA" Primary supervisor. Direct supervision and training. Daily interaction and mentorship.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Modulation of immune responses by Fasciola hepatica-derived products" Informal supervisor. Project design and management. Now a medical science liaison in pharma </t>
+  </si>
+  <si>
+    <t>"The Immunoregulatory activity of exosomes secreted by the parasitic worm, Fasciola hepatica."  Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Now a Post-Doc in TCD.</t>
+  </si>
+  <si>
+    <t>"Modulation of Innate immune responses by the helminth parasite Fasciola hepatica "Grade: II.1 Co-primary supervisor - project design and mentorship &amp; direct supervision/training. Now in Industry science role</t>
+  </si>
+  <si>
+    <t>"Creating the first Cellular Atlas of Pleural Effusion (CAPE) using single cell RNA-sequencing datasets" Primary supervisor</t>
+  </si>
+  <si>
+    <t>2024-2028</t>
+  </si>
+  <si>
+    <t>PhD Immunology</t>
+  </si>
+  <si>
+    <t>PhD Bioinformatics</t>
+  </si>
+  <si>
+    <t>Jack Mitchell</t>
+  </si>
+  <si>
+    <t>Jordan O'Keefe</t>
+  </si>
+  <si>
+    <t>Arlena Carney</t>
+  </si>
+  <si>
+    <t>PhD Immunology (Co-supervisor)</t>
+  </si>
+  <si>
+    <t>2023-2027</t>
   </si>
 </sst>
 </file>
@@ -563,22 +599,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -612,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -629,7 +665,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -647,7 +683,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -661,16 +697,16 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -679,15 +715,15 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -696,10 +732,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -713,11 +749,11 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -731,11 +767,11 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -749,11 +785,11 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -767,11 +803,11 @@
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -789,7 +825,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -807,7 +843,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -821,15 +857,15 @@
         <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -838,12 +874,12 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
@@ -855,7 +891,66 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040EADF8-3BEF-D840-8CF3-EF3CAB53839A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95FBC9-0541-8F49-BA14-FDEFF80ECAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,12 +227,6 @@
     <t>2024-2028</t>
   </si>
   <si>
-    <t>PhD Immunology</t>
-  </si>
-  <si>
-    <t>PhD Bioinformatics</t>
-  </si>
-  <si>
     <t>Jack Mitchell</t>
   </si>
   <si>
@@ -242,10 +236,16 @@
     <t>Arlena Carney</t>
   </si>
   <si>
-    <t>PhD Immunology (Co-supervisor)</t>
-  </si>
-  <si>
     <t>2023-2027</t>
+  </si>
+  <si>
+    <t>PhD Immunology (sole-supervisor)</t>
+  </si>
+  <si>
+    <t>PhD Immunology (co-supervisor)</t>
+  </si>
+  <si>
+    <t>PhD Bioinformatics (sole-supervisor)</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -913,10 +913,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>58</v>
@@ -927,10 +927,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B95FBC9-0541-8F49-BA14-FDEFF80ECAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A5C97-68A5-C845-ADAE-C0C01F036465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>with</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Katy White</t>
-  </si>
-  <si>
-    <t>Ba(Mod) Molecular Medicine (intercalating Medical student)</t>
   </si>
   <si>
     <t>“PREVENTION IN PERSONALISED MEDICINE - paradise study”. Direct supervision and training. Daily interaction and mentorship.</t>
@@ -246,6 +243,12 @@
   </si>
   <si>
     <t>PhD Bioinformatics (sole-supervisor)</t>
+  </si>
+  <si>
+    <t>BA(mod) Human Health and Disease</t>
+  </si>
+  <si>
+    <t>BA(Mod) Molecular Medicine (intercalating Medical student)</t>
   </si>
 </sst>
 </file>
@@ -599,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -679,7 +682,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -697,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -706,7 +709,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -715,7 +718,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -723,7 +726,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -732,7 +735,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -767,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -785,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -803,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -812,7 +815,7 @@
         <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>2021</v>
@@ -821,7 +824,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -839,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -848,7 +851,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1">
         <v>2022</v>
@@ -857,15 +860,15 @@
         <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -874,15 +877,15 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -891,15 +894,15 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>2024</v>
@@ -908,18 +911,18 @@
         <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -927,13 +930,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -941,15 +944,26 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>2025</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A5C97-68A5-C845-ADAE-C0C01F036465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBFD7D-C231-3448-B622-23EEE031BC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1440" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="6560" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>with</t>
   </si>
@@ -250,12 +250,21 @@
   <si>
     <t>BA(Mod) Molecular Medicine (intercalating Medical student)</t>
   </si>
+  <si>
+    <t>Roxanne Salkeld</t>
+  </si>
+  <si>
+    <t>Leela Radhakrishnan</t>
+  </si>
+  <si>
+    <t>MSc Genomic Medicine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +300,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF191919"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +343,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,7 +979,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>65</v>
       </c>
@@ -964,6 +990,20 @@
         <v>2025</v>
       </c>
       <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>2025</v>
+      </c>
+      <c r="D22" t="s">
         <v>19</v>
       </c>
     </row>

--- a/data/supervison.xlsx
+++ b/data/supervison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBFD7D-C231-3448-B622-23EEE031BC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4497F62-501F-5145-A49C-28D8F9196CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="6560" windowWidth="29520" windowHeight="18200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>with</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>MSc Genomic Medicine</t>
+  </si>
+  <si>
+    <t>Remi Bossard</t>
+  </si>
+  <si>
+    <t>BA(Mod) Molecular Medicine</t>
+  </si>
+  <si>
+    <t>Linda Romano</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1007,6 +1016,34 @@
         <v>19</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23">
+        <v>2025</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <v>2025</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
